--- a/monografia v3/raw.xlsx
+++ b/monografia v3/raw.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Threshold</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>VN</t>
+  </si>
+  <si>
+    <t>1-Especificidade</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,11 +487,11 @@
         <v>0.995787700084246</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G12" si="1">C2/(C2+D2)</f>
+        <f>C2/(C2+D2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H12" si="2">(B2+C2)/(B2+C2+D2+E2)</f>
+        <f t="shared" ref="H2:H12" si="1">(B2+C2)/(B2+C2+D2+E2)</f>
         <v>3.851329555858941E-3</v>
       </c>
       <c r="I2" s="3">
@@ -517,11 +520,11 @@
         <v>0.99576988155668356</v>
       </c>
       <c r="G3" s="3">
+        <f t="shared" ref="G2:G12" si="2">C3/(C3+D3)</f>
+        <v>0.99830651989839114</v>
+      </c>
+      <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>0.99830651989839114</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" si="2"/>
         <v>0.99703766398645788</v>
       </c>
       <c r="I3" s="3">
@@ -550,11 +553,11 @@
         <v>0.99576988155668356</v>
       </c>
       <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99830651989839114</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>0.99830651989839114</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="2"/>
         <v>0.99703766398645788</v>
       </c>
       <c r="I4" s="3">
@@ -583,11 +586,11 @@
         <v>0.99576988155668356</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99830651989839114</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>0.99830651989839114</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="2"/>
         <v>0.99703766398645788</v>
       </c>
       <c r="I5" s="3">
@@ -616,11 +619,11 @@
         <v>0.99492385786802029</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99915325994919557</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>0.99915325994919557</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="2"/>
         <v>0.99703766398645788</v>
       </c>
       <c r="I6" s="3">
@@ -649,11 +652,11 @@
         <v>0.99492385786802029</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99915325994919557</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>0.99915325994919557</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="2"/>
         <v>0.99703766398645788</v>
       </c>
       <c r="I7" s="3">
@@ -682,11 +685,11 @@
         <v>0.99492385786802029</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99915325994919557</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>0.99915325994919557</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="2"/>
         <v>0.99703766398645788</v>
       </c>
       <c r="I8" s="3">
@@ -715,11 +718,11 @@
         <v>0.99492385786802029</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="2"/>
         <v>0.99746085484553537</v>
       </c>
       <c r="I9" s="3">
@@ -748,11 +751,11 @@
         <v>0.99407783417935702</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="2"/>
         <v>0.99703766398645788</v>
       </c>
       <c r="I10" s="3">
@@ -781,11 +784,11 @@
         <v>0.99238578680203049</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="2"/>
         <v>0.996191282268303</v>
       </c>
       <c r="I11" s="3">
@@ -814,11 +817,11 @@
         <v>0.99069373942470385</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="2"/>
         <v>0.99534490055014813</v>
       </c>
       <c r="I12" s="3">
@@ -840,52 +843,103 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <f>1-G2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <f>1-G3</f>
+        <v>1.6934801016088574E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <f>1-G4</f>
+        <v>1.6934801016088574E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <f>1-G5</f>
+        <v>1.6934801016088574E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <f>1-G6</f>
+        <v>8.4674005080442871E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <f>1-G7</f>
+        <v>8.4674005080442871E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <f>1-G8</f>
+        <v>8.4674005080442871E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -898,9 +952,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
